--- a/src/main/resources/FullPath.xlsx
+++ b/src/main/resources/FullPath.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27230"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75163A42-B818-4906-81BA-B55224873918}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD07A18-1148-40AC-A0B8-340DDEC90E04}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>For Payment</t>
+  </si>
+  <si>
+    <t>Fail Acc Case</t>
+  </si>
+  <si>
+    <t>Fake Address 1</t>
+  </si>
+  <si>
+    <t>Fake Address 2</t>
+  </si>
+  <si>
+    <t>Fail Pin Case</t>
+  </si>
+  <si>
+    <t>ForPayment</t>
+  </si>
+  <si>
+    <t>Fail Acc Case 2</t>
+  </si>
+  <si>
+    <t>Fail Pin Case 2</t>
+  </si>
+  <si>
+    <t>NonExistentUser</t>
   </si>
 </sst>
 </file>
@@ -149,10 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -478,6 +503,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,28 +560,158 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>412131</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>4042</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>123141</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
+        <v>32032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123141231</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4123</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2341241</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>412341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>212341</v>
+      </c>
+      <c r="E5" s="1">
+        <v>204203</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41231</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1241231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4123</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2341241</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>412341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>212341</v>
+      </c>
+      <c r="E7" s="3">
+        <v>231</v>
+      </c>
+      <c r="F7" s="3">
+        <v>41231</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1241231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>412131</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1111</v>
+      </c>
+      <c r="F8" s="1">
+        <v>123141</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
         <v>32032</v>
       </c>
     </row>
@@ -566,10 +722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC42BBDE-487E-4242-AB43-0E07BD9885A0}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="A1:H3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,6 +813,110 @@
         <v>32032</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123141231</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4123</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2341241</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>412341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>212341</v>
+      </c>
+      <c r="E5" s="1">
+        <v>204203</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41231</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1241231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4123</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2341241</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>412341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>212341</v>
+      </c>
+      <c r="E7" s="1">
+        <v>231</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41231</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1241231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
